--- a/data/Support.xlsx
+++ b/data/Support.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VCS_CAPTAIN_STATUS" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="VCS_CREW_PAYMENT_SYSTEMS" sheetId="4" r:id="rId4"/>
     <sheet name="VCS_STATUS_OPTIONS" sheetId="5" r:id="rId5"/>
     <sheet name="VCS_SURVEY_DETAILS" sheetId="6" r:id="rId6"/>
-    <sheet name="VCS_COST_CATEGORIES" sheetId="7" r:id="rId7"/>
-    <sheet name="costapp" sheetId="8" r:id="rId8"/>
+    <sheet name="VCS_CROSS_DB_LINKS" sheetId="9" r:id="rId7"/>
+    <sheet name="VCS_COST_CATEGORIES" sheetId="7" r:id="rId8"/>
+    <sheet name="costapp" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>Variable Name</t>
   </si>
@@ -246,6 +247,36 @@
   </si>
   <si>
     <t>Null as the user is to refer to the original source for information about this cost's description.</t>
+  </si>
+  <si>
+    <t>HULLNUM</t>
+  </si>
+  <si>
+    <t>A state registration or a coast guard documentation number (same as the hull identifier or Hull I.D.)</t>
+  </si>
+  <si>
+    <t>PERMIT</t>
+  </si>
+  <si>
+    <t>Vessel permit number (aka VP_NUM in Permit database)</t>
+  </si>
+  <si>
+    <t>LAST_YEAR_ACTIVE</t>
+  </si>
+  <si>
+    <t>Last year the vessel had revenues reported from a federal dealer at the time the sampling frame was generated for each survey year</t>
+  </si>
+  <si>
+    <t>AP_NUM</t>
+  </si>
+  <si>
+    <t>NUMBER(7,0)</t>
+  </si>
+  <si>
+    <t>The unique application number which connects a fishery record to a vessel permit application, when the vessel was selected for sampling.</t>
+  </si>
+  <si>
+    <t>Year in which the costs were incurred and collected for within the survey</t>
   </si>
 </sst>
 </file>
@@ -1086,9 +1117,115 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="39.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="39.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="26.65" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="26.65" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1146,7 +1283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="141" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="51.75" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>62</v>
       </c>
@@ -1161,7 +1298,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="281.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="102.75" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -1183,7 +1320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
